--- a/data/FinancialData/FinancialDataElements/PersonalIncome/Personal Income 2021.xlsx
+++ b/data/FinancialData/FinancialDataElements/PersonalIncome/Personal Income 2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pagov-my.sharepoint.com/personal/bheimbach_pa_gov/Documents/Desktop/Web Dump/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericlynch/cs320/dbms_proj/data/FinancialData/FinancialDataElements/PersonalIncome/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3829534-5D0E-4640-9B19-C651E47FEE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DA0E0B-4FE3-0648-985A-078DE4B24E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24075" yWindow="1680" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Personal Income 2021" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="datamay26" type="6" refreshedVersion="1" background="1" saveData="1">
-    <textPr codePage="28603" sourceFile="H:\shbrady C drive\ACT 80\datamay26.txt" delimited="0">
+    <textPr sourceFile="H:\shbrady C drive\ACT 80\datamay26.txt" delimited="0">
       <textFields count="10">
         <textField/>
         <textField position="5"/>
@@ -1799,8 +1799,7 @@
   <si>
     <t>Adjusted
 Personal
-Income
-June 2023</t>
+Income</t>
   </si>
 </sst>
 </file>
@@ -2214,25 +2213,25 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="10"/>
+    <col min="4" max="4" width="7.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="12.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.1640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -2273,7 +2272,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="6">
         <v>112011103</v>
       </c>
@@ -2314,7 +2313,7 @@
         <v>450869549</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>112011603</v>
       </c>
@@ -2355,7 +2354,7 @@
         <v>854891109</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>112013054</v>
       </c>
@@ -2396,7 +2395,7 @@
         <v>281043098</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>112013753</v>
       </c>
@@ -2437,7 +2436,7 @@
         <v>866026347</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>112015203</v>
       </c>
@@ -2478,7 +2477,7 @@
         <v>458293174</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>112018523</v>
       </c>
@@ -2519,7 +2518,7 @@
         <v>325364466</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>103020603</v>
       </c>
@@ -2560,7 +2559,7 @@
         <v>354178339</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>103020753</v>
       </c>
@@ -2601,7 +2600,7 @@
         <v>709802013</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>103021102</v>
       </c>
@@ -2642,7 +2641,7 @@
         <v>1130280327</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>103021252</v>
       </c>
@@ -2683,7 +2682,7 @@
         <v>1301912475</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>103021453</v>
       </c>
@@ -2724,7 +2723,7 @@
         <v>267377212</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>103021603</v>
       </c>
@@ -2765,7 +2764,7 @@
         <v>436944681</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>103021752</v>
       </c>
@@ -2806,7 +2805,7 @@
         <v>1386645424</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>103021903</v>
       </c>
@@ -2847,7 +2846,7 @@
         <v>86678184</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>103022103</v>
       </c>
@@ -2888,7 +2887,7 @@
         <v>156604622</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>103022253</v>
       </c>
@@ -2929,7 +2928,7 @@
         <v>460039057</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>103022503</v>
       </c>
@@ -2970,7 +2969,7 @@
         <v>56601996</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>103022803</v>
       </c>
@@ -3011,7 +3010,7 @@
         <v>294022579</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>103023153</v>
       </c>
@@ -3052,7 +3051,7 @@
         <v>558680519</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>103023912</v>
       </c>
@@ -3093,7 +3092,7 @@
         <v>2590605293</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>103024102</v>
       </c>
@@ -3134,7 +3133,7 @@
         <v>894866458</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>103024603</v>
       </c>
@@ -3175,7 +3174,7 @@
         <v>1169818742</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>103024753</v>
       </c>
@@ -3216,7 +3215,7 @@
         <v>434095356</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>103025002</v>
       </c>
@@ -3257,7 +3256,7 @@
         <v>714888168</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>103026002</v>
       </c>
@@ -3298,7 +3297,7 @@
         <v>474637915</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>103026303</v>
       </c>
@@ -3339,7 +3338,7 @@
         <v>1208378792</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>103026343</v>
       </c>
@@ -3380,7 +3379,7 @@
         <v>1258587579</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>103026402</v>
       </c>
@@ -3421,7 +3420,7 @@
         <v>2191228103</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
         <v>103026852</v>
       </c>
@@ -3462,7 +3461,7 @@
         <v>3710298659</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
         <v>103026902</v>
       </c>
@@ -3503,7 +3502,7 @@
         <v>1559711944</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
         <v>103026873</v>
       </c>
@@ -3544,7 +3543,7 @@
         <v>360491703</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A33" s="6">
         <v>103027352</v>
       </c>
@@ -3585,7 +3584,7 @@
         <v>886295525</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A34" s="6">
         <v>103021003</v>
       </c>
@@ -3626,7 +3625,7 @@
         <v>2182966506</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A35" s="6">
         <v>102027451</v>
       </c>
@@ -3667,7 +3666,7 @@
         <v>9757478956</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A36" s="6">
         <v>103027503</v>
       </c>
@@ -3708,7 +3707,7 @@
         <v>920495470</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A37" s="6">
         <v>103027753</v>
       </c>
@@ -3749,7 +3748,7 @@
         <v>2155585348</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A38" s="6">
         <v>103028203</v>
       </c>
@@ -3790,7 +3789,7 @@
         <v>374201868</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A39" s="6">
         <v>103028302</v>
       </c>
@@ -3831,7 +3830,7 @@
         <v>1274408654</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A40" s="6">
         <v>103028653</v>
       </c>
@@ -3872,7 +3871,7 @@
         <v>219561227</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A41" s="6">
         <v>103028703</v>
       </c>
@@ -3913,7 +3912,7 @@
         <v>929928124</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A42" s="6">
         <v>103028753</v>
       </c>
@@ -3954,7 +3953,7 @@
         <v>474729162</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A43" s="6">
         <v>103028833</v>
       </c>
@@ -3995,7 +3994,7 @@
         <v>328852654</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A44" s="6">
         <v>103028853</v>
       </c>
@@ -4036,7 +4035,7 @@
         <v>174868254</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A45" s="6">
         <v>103029203</v>
       </c>
@@ -4077,7 +4076,7 @@
         <v>1647653305</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A46" s="6">
         <v>103029403</v>
       </c>
@@ -4118,7 +4117,7 @@
         <v>987856153</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A47" s="6">
         <v>103029553</v>
       </c>
@@ -4159,7 +4158,7 @@
         <v>854174660</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A48" s="6">
         <v>103029603</v>
       </c>
@@ -4200,7 +4199,7 @@
         <v>463989505</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A49" s="6">
         <v>103029803</v>
       </c>
@@ -4241,7 +4240,7 @@
         <v>315384365</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A50" s="6">
         <v>103029902</v>
       </c>
@@ -4282,7 +4281,7 @@
         <v>1257319826</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A51" s="6">
         <v>128030603</v>
       </c>
@@ -4323,7 +4322,7 @@
         <v>193494663</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A52" s="6">
         <v>128030852</v>
       </c>
@@ -4364,7 +4363,7 @@
         <v>997748804</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A53" s="6">
         <v>128033053</v>
       </c>
@@ -4405,7 +4404,7 @@
         <v>444274227</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A54" s="6">
         <v>128034503</v>
       </c>
@@ -4446,7 +4445,7 @@
         <v>131444919</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A55" s="6">
         <v>127040503</v>
       </c>
@@ -4487,7 +4486,7 @@
         <v>142882261</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A56" s="6">
         <v>127040703</v>
       </c>
@@ -4528,7 +4527,7 @@
         <v>618214759</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A57" s="6">
         <v>127041203</v>
       </c>
@@ -4569,7 +4568,7 @@
         <v>559862914</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A58" s="6">
         <v>127041503</v>
       </c>
@@ -4610,7 +4609,7 @@
         <v>217238224</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A59" s="6">
         <v>127041603</v>
       </c>
@@ -4651,7 +4650,7 @@
         <v>575699044</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A60" s="6">
         <v>127042003</v>
       </c>
@@ -4692,7 +4691,7 @@
         <v>573810991</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A61" s="6">
         <v>127042853</v>
       </c>
@@ -4733,7 +4732,7 @@
         <v>294750536</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A62" s="6">
         <v>127044103</v>
       </c>
@@ -4774,7 +4773,7 @@
         <v>559691347</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A63" s="6">
         <v>127045303</v>
       </c>
@@ -4815,7 +4814,7 @@
         <v>41873720</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A64" s="6">
         <v>127045653</v>
       </c>
@@ -4856,7 +4855,7 @@
         <v>205756940</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A65" s="6">
         <v>127045853</v>
       </c>
@@ -4897,7 +4896,7 @@
         <v>308018714</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A66" s="6">
         <v>127046903</v>
       </c>
@@ -4938,7 +4937,7 @@
         <v>136191688</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A67" s="6">
         <v>127047404</v>
       </c>
@@ -4979,7 +4978,7 @@
         <v>205171917</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A68" s="6">
         <v>127049303</v>
       </c>
@@ -5020,7 +5019,7 @@
         <v>138768425</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A69" s="6">
         <v>108051003</v>
       </c>
@@ -5061,7 +5060,7 @@
         <v>412737129</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A70" s="6">
         <v>108051503</v>
       </c>
@@ -5102,7 +5101,7 @@
         <v>229359834</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A71" s="6">
         <v>108053003</v>
       </c>
@@ -5143,7 +5142,7 @@
         <v>203397312</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A72" s="6">
         <v>108056004</v>
       </c>
@@ -5184,7 +5183,7 @@
         <v>154505499</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A73" s="6">
         <v>108058003</v>
       </c>
@@ -5225,7 +5224,7 @@
         <v>134522258</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A74" s="6">
         <v>114060503</v>
       </c>
@@ -5266,7 +5265,7 @@
         <v>214414908</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A75" s="6">
         <v>114060753</v>
       </c>
@@ -5307,7 +5306,7 @@
         <v>2069495402</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A76" s="6">
         <v>114060853</v>
       </c>
@@ -5348,7 +5347,7 @@
         <v>422557385</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A77" s="6">
         <v>114061103</v>
       </c>
@@ -5389,7 +5388,7 @@
         <v>622739577</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A78" s="6">
         <v>114061503</v>
       </c>
@@ -5430,7 +5429,7 @@
         <v>806379286</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A79" s="6">
         <v>114062003</v>
       </c>
@@ -5471,7 +5470,7 @@
         <v>939561476</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A80" s="6">
         <v>114062503</v>
       </c>
@@ -5512,7 +5511,7 @@
         <v>618853333</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A81" s="6">
         <v>114063003</v>
       </c>
@@ -5553,7 +5552,7 @@
         <v>1204053059</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A82" s="6">
         <v>114063503</v>
       </c>
@@ -5594,7 +5593,7 @@
         <v>531962814</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A83" s="6">
         <v>114064003</v>
       </c>
@@ -5635,7 +5634,7 @@
         <v>445582882</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A84" s="6">
         <v>114065503</v>
       </c>
@@ -5676,7 +5675,7 @@
         <v>684206183</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A85" s="6">
         <v>114066503</v>
       </c>
@@ -5717,7 +5716,7 @@
         <v>484967859</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A86" s="6">
         <v>114067002</v>
       </c>
@@ -5758,7 +5757,7 @@
         <v>1149291223</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A87" s="6">
         <v>114067503</v>
       </c>
@@ -5799,7 +5798,7 @@
         <v>638998976</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A88" s="6">
         <v>114068003</v>
       </c>
@@ -5840,7 +5839,7 @@
         <v>422878079</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A89" s="6">
         <v>114068103</v>
       </c>
@@ -5881,7 +5880,7 @@
         <v>937685614</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A90" s="6">
         <v>114069103</v>
       </c>
@@ -5922,7 +5921,7 @@
         <v>1653994665</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A91" s="6">
         <v>114069353</v>
       </c>
@@ -5963,7 +5962,7 @@
         <v>844899994</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A92" s="6">
         <v>108070502</v>
       </c>
@@ -6004,7 +6003,7 @@
         <v>1196525971</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A93" s="6">
         <v>108071003</v>
       </c>
@@ -6045,7 +6044,7 @@
         <v>234835743</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A94" s="6">
         <v>108071504</v>
       </c>
@@ -6086,7 +6085,7 @@
         <v>120594473</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A95" s="6">
         <v>108073503</v>
       </c>
@@ -6127,7 +6126,7 @@
         <v>1052782699</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A96" s="6">
         <v>108077503</v>
       </c>
@@ -6168,7 +6167,7 @@
         <v>322618208</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A97" s="6">
         <v>108078003</v>
       </c>
@@ -6209,7 +6208,7 @@
         <v>302244409</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A98" s="6">
         <v>108079004</v>
       </c>
@@ -6250,7 +6249,7 @@
         <v>71970041</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A99" s="6">
         <v>117080503</v>
       </c>
@@ -6291,7 +6290,7 @@
         <v>308234160</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A100" s="6">
         <v>117081003</v>
       </c>
@@ -6332,7 +6331,7 @@
         <v>122948544</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A101" s="6">
         <v>117083004</v>
       </c>
@@ -6373,7 +6372,7 @@
         <v>117661082</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A102" s="6">
         <v>117086003</v>
       </c>
@@ -6414,7 +6413,7 @@
         <v>147129427</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A103" s="6">
         <v>117086503</v>
       </c>
@@ -6455,7 +6454,7 @@
         <v>229378831</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A104" s="6">
         <v>117086653</v>
       </c>
@@ -6496,7 +6495,7 @@
         <v>212054286</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A105" s="6">
         <v>117089003</v>
       </c>
@@ -6537,7 +6536,7 @@
         <v>302898942</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A106" s="6">
         <v>122091002</v>
       </c>
@@ -6578,7 +6577,7 @@
         <v>1977479651</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A107" s="6">
         <v>122091303</v>
       </c>
@@ -6619,7 +6618,7 @@
         <v>232349838</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A108" s="6">
         <v>122091352</v>
       </c>
@@ -6660,7 +6659,7 @@
         <v>1373042875</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A109" s="6">
         <v>122092002</v>
       </c>
@@ -6701,7 +6700,7 @@
         <v>1887455420</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A110" s="6">
         <v>122092102</v>
       </c>
@@ -6742,7 +6741,7 @@
         <v>7847921811</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A111" s="6">
         <v>122092353</v>
       </c>
@@ -6783,7 +6782,7 @@
         <v>6940706195</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A112" s="6">
         <v>122097203</v>
       </c>
@@ -6824,7 +6823,7 @@
         <v>348601165</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A113" s="6">
         <v>122097502</v>
       </c>
@@ -6865,7 +6864,7 @@
         <v>2799514172</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A114" s="6">
         <v>122097604</v>
       </c>
@@ -6906,7 +6905,7 @@
         <v>1531635691</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A115" s="6">
         <v>122098003</v>
       </c>
@@ -6947,7 +6946,7 @@
         <v>789605026</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A116" s="6">
         <v>122098103</v>
       </c>
@@ -6988,7 +6987,7 @@
         <v>2423889817</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A117" s="6">
         <v>122098202</v>
       </c>
@@ -7029,7 +7028,7 @@
         <v>3701983379</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A118" s="6">
         <v>122098403</v>
       </c>
@@ -7070,7 +7069,7 @@
         <v>1346218778</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A119" s="6">
         <v>104101252</v>
       </c>
@@ -7111,7 +7110,7 @@
         <v>1437202935</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A120" s="6">
         <v>104103603</v>
       </c>
@@ -7152,7 +7151,7 @@
         <v>223792918</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A121" s="6">
         <v>104107803</v>
       </c>
@@ -7193,7 +7192,7 @@
         <v>663644935</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A122" s="6">
         <v>104105003</v>
       </c>
@@ -7234,7 +7233,7 @@
         <v>1631635644</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A123" s="6">
         <v>104105353</v>
       </c>
@@ -7275,7 +7274,7 @@
         <v>211667591</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A124" s="6">
         <v>104107903</v>
       </c>
@@ -7316,7 +7315,7 @@
         <v>2806825384</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A125" s="6">
         <v>104107503</v>
       </c>
@@ -7357,7 +7356,7 @@
         <v>494003351</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A126" s="6">
         <v>108110603</v>
       </c>
@@ -7398,7 +7397,7 @@
         <v>85994976</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A127" s="6">
         <v>108111203</v>
       </c>
@@ -7439,7 +7438,7 @@
         <v>223689345</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A128" s="6">
         <v>108111303</v>
       </c>
@@ -7480,7 +7479,7 @@
         <v>362487316</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A129" s="6">
         <v>108111403</v>
       </c>
@@ -7521,7 +7520,7 @@
         <v>127019714</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A130" s="6">
         <v>108112003</v>
       </c>
@@ -7562,7 +7561,7 @@
         <v>71763521</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A131" s="6">
         <v>108112203</v>
       </c>
@@ -7603,7 +7602,7 @@
         <v>309792495</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A132" s="6">
         <v>108112502</v>
       </c>
@@ -7644,7 +7643,7 @@
         <v>305303417</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A133" s="6">
         <v>108114503</v>
       </c>
@@ -7685,7 +7684,7 @@
         <v>160088635</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A134" s="6">
         <v>108116003</v>
       </c>
@@ -7726,7 +7725,7 @@
         <v>311938882</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A135" s="6">
         <v>108116303</v>
       </c>
@@ -7767,7 +7766,7 @@
         <v>122170142</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A136" s="6">
         <v>108116503</v>
       </c>
@@ -7808,7 +7807,7 @@
         <v>416681527</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A137" s="6">
         <v>108118503</v>
       </c>
@@ -7849,7 +7848,7 @@
         <v>417924916</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A138" s="6">
         <v>109122703</v>
       </c>
@@ -7890,7 +7889,7 @@
         <v>84837204</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A139" s="6">
         <v>121135003</v>
       </c>
@@ -7931,7 +7930,7 @@
         <v>384429090</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A140" s="6">
         <v>121135503</v>
       </c>
@@ -7972,7 +7971,7 @@
         <v>440734583</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A141" s="6">
         <v>121136503</v>
       </c>
@@ -8013,7 +8012,7 @@
         <v>399966832</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A142" s="6">
         <v>121136603</v>
       </c>
@@ -8054,7 +8053,7 @@
         <v>217780519</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A143" s="6">
         <v>121139004</v>
       </c>
@@ -8095,7 +8094,7 @@
         <v>114531561</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A144" s="6">
         <v>110141003</v>
       </c>
@@ -8136,7 +8135,7 @@
         <v>299349413</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A145" s="6">
         <v>110141103</v>
       </c>
@@ -8177,7 +8176,7 @@
         <v>693269661</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A146" s="6">
         <v>110147003</v>
       </c>
@@ -8218,7 +8217,7 @@
         <v>348007519</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A147" s="6">
         <v>110148002</v>
       </c>
@@ -8259,7 +8258,7 @@
         <v>2673591497</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A148" s="6">
         <v>124150503</v>
       </c>
@@ -8300,7 +8299,7 @@
         <v>1148809639</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A149" s="6">
         <v>124151902</v>
       </c>
@@ -8341,7 +8340,7 @@
         <v>1994571611</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A150" s="6">
         <v>124152003</v>
       </c>
@@ -8382,7 +8381,7 @@
         <v>5757024986</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A151" s="6">
         <v>124153503</v>
       </c>
@@ -8423,7 +8422,7 @@
         <v>3587269529</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A152" s="6">
         <v>124154003</v>
       </c>
@@ -8464,7 +8463,7 @@
         <v>1270541241</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A153" s="6">
         <v>124156503</v>
       </c>
@@ -8505,7 +8504,7 @@
         <v>732564306</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A154" s="6">
         <v>124156603</v>
       </c>
@@ -8546,7 +8545,7 @@
         <v>2373499581</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A155" s="6">
         <v>124156703</v>
       </c>
@@ -8587,7 +8586,7 @@
         <v>680533118</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A156" s="6">
         <v>124157203</v>
       </c>
@@ -8628,7 +8627,7 @@
         <v>2254522489</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A157" s="6">
         <v>124157802</v>
       </c>
@@ -8669,7 +8668,7 @@
         <v>4927512722</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A158" s="6">
         <v>124158503</v>
       </c>
@@ -8710,7 +8709,7 @@
         <v>2373223048</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A159" s="6">
         <v>124159002</v>
       </c>
@@ -8751,7 +8750,7 @@
         <v>6739683429</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A160" s="6">
         <v>106160303</v>
       </c>
@@ -8792,7 +8791,7 @@
         <v>126048065</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A161" s="6">
         <v>106161203</v>
       </c>
@@ -8833,7 +8832,7 @@
         <v>197953302</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A162" s="6">
         <v>106161703</v>
       </c>
@@ -8874,7 +8873,7 @@
         <v>148700024</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A163" s="6">
         <v>106166503</v>
       </c>
@@ -8915,7 +8914,7 @@
         <v>164035397</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A164" s="6">
         <v>106167504</v>
       </c>
@@ -8956,7 +8955,7 @@
         <v>118218738</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A165" s="6">
         <v>106168003</v>
       </c>
@@ -8997,7 +8996,7 @@
         <v>173532659</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A166" s="6">
         <v>106169003</v>
       </c>
@@ -9038,7 +9037,7 @@
         <v>74645854</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A167" s="6">
         <v>110171003</v>
       </c>
@@ -9079,7 +9078,7 @@
         <v>384745212</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A168" s="6">
         <v>110171803</v>
       </c>
@@ -9120,7 +9119,7 @@
         <v>162542648</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A169" s="6">
         <v>106172003</v>
       </c>
@@ -9161,7 +9160,7 @@
         <v>773565307</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A170" s="6">
         <v>110173003</v>
       </c>
@@ -9202,7 +9201,7 @@
         <v>98851934</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A171" s="6">
         <v>110173504</v>
       </c>
@@ -9243,7 +9242,7 @@
         <v>42296879</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A172" s="6">
         <v>110175003</v>
       </c>
@@ -9284,7 +9283,7 @@
         <v>135799101</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A173" s="6">
         <v>110177003</v>
       </c>
@@ -9325,7 +9324,7 @@
         <v>289273274</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A174" s="6">
         <v>110179003</v>
       </c>
@@ -9366,7 +9365,7 @@
         <v>162101605</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A175" s="6">
         <v>110183602</v>
       </c>
@@ -9407,7 +9406,7 @@
         <v>811324670</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A176" s="6">
         <v>116191004</v>
       </c>
@@ -9448,7 +9447,7 @@
         <v>134025224</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A177" s="6">
         <v>116191103</v>
       </c>
@@ -9489,7 +9488,7 @@
         <v>487287398</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A178" s="6">
         <v>116191203</v>
       </c>
@@ -9530,7 +9529,7 @@
         <v>371969505</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A179" s="6">
         <v>116191503</v>
       </c>
@@ -9571,7 +9570,7 @@
         <v>476782690</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A180" s="6">
         <v>116195004</v>
       </c>
@@ -9612,7 +9611,7 @@
         <v>135546353</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A181" s="6">
         <v>116197503</v>
       </c>
@@ -9653,7 +9652,7 @@
         <v>305662711</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A182" s="6">
         <v>105201033</v>
       </c>
@@ -9694,7 +9693,7 @@
         <v>376722067</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A183" s="6">
         <v>105201352</v>
       </c>
@@ -9735,7 +9734,7 @@
         <v>652472356</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A184" s="6">
         <v>105204703</v>
       </c>
@@ -9776,7 +9775,7 @@
         <v>504233497</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A185" s="6">
         <v>115210503</v>
       </c>
@@ -9817,7 +9816,7 @@
         <v>599787918</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A186" s="6">
         <v>115211003</v>
       </c>
@@ -9858,7 +9857,7 @@
         <v>605180656</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A187" s="6">
         <v>115211103</v>
       </c>
@@ -9899,7 +9898,7 @@
         <v>1066728611</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A188" s="6">
         <v>115211603</v>
       </c>
@@ -9940,7 +9939,7 @@
         <v>3817613216</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A189" s="6">
         <v>115212503</v>
       </c>
@@ -9981,7 +9980,7 @@
         <v>702967117</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A190" s="6">
         <v>115216503</v>
       </c>
@@ -10022,7 +10021,7 @@
         <v>1295783746</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A191" s="6">
         <v>115218003</v>
       </c>
@@ -10063,7 +10062,7 @@
         <v>675674195</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A192" s="6">
         <v>115218303</v>
       </c>
@@ -10104,7 +10103,7 @@
         <v>556171009</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A193" s="6">
         <v>115221402</v>
       </c>
@@ -10145,7 +10144,7 @@
         <v>3379746315</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A194" s="6">
         <v>115221753</v>
       </c>
@@ -10186,7 +10185,7 @@
         <v>1300739994</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A195" s="6">
         <v>115222504</v>
       </c>
@@ -10227,7 +10226,7 @@
         <v>220497949</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A196" s="6">
         <v>115222752</v>
       </c>
@@ -10268,7 +10267,7 @@
         <v>748931954</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A197" s="6">
         <v>115224003</v>
       </c>
@@ -10309,7 +10308,7 @@
         <v>1117315316</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A198" s="6">
         <v>115226003</v>
       </c>
@@ -10350,7 +10349,7 @@
         <v>482060974</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A199" s="6">
         <v>115226103</v>
       </c>
@@ -10391,7 +10390,7 @@
         <v>183701293</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A200" s="6">
         <v>115228003</v>
       </c>
@@ -10432,7 +10431,7 @@
         <v>127935302</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A201" s="6">
         <v>115228303</v>
       </c>
@@ -10473,7 +10472,7 @@
         <v>842304006</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A202" s="6">
         <v>115229003</v>
       </c>
@@ -10514,7 +10513,7 @@
         <v>241088272</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A203" s="6">
         <v>125231232</v>
       </c>
@@ -10555,7 +10554,7 @@
         <v>471419795</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A204" s="6">
         <v>125231303</v>
       </c>
@@ -10596,7 +10595,7 @@
         <v>540503550</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A205" s="6">
         <v>125234103</v>
       </c>
@@ -10637,7 +10636,7 @@
         <v>1509349911</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A206" s="6">
         <v>125234502</v>
       </c>
@@ -10678,7 +10677,7 @@
         <v>3094842004</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A207" s="6">
         <v>125235103</v>
       </c>
@@ -10719,7 +10718,7 @@
         <v>566351188</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A208" s="6">
         <v>125235502</v>
       </c>
@@ -10760,7 +10759,7 @@
         <v>3106671261</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A209" s="6">
         <v>125236903</v>
       </c>
@@ -10801,7 +10800,7 @@
         <v>833546930</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A210" s="6">
         <v>125237603</v>
       </c>
@@ -10842,7 +10841,7 @@
         <v>3872059699</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A211" s="6">
         <v>125237702</v>
       </c>
@@ -10883,7 +10882,7 @@
         <v>1158023326</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A212" s="6">
         <v>125237903</v>
       </c>
@@ -10924,7 +10923,7 @@
         <v>2474052281</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A213" s="6">
         <v>125238402</v>
       </c>
@@ -10965,7 +10964,7 @@
         <v>548677115</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A214" s="6">
         <v>125238502</v>
       </c>
@@ -11006,7 +11005,7 @@
         <v>1171435037</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A215" s="6">
         <v>125239452</v>
       </c>
@@ -11047,7 +11046,7 @@
         <v>1985560043</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A216" s="6">
         <v>125239603</v>
       </c>
@@ -11088,7 +11087,7 @@
         <v>1451727146</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A217" s="6">
         <v>125239652</v>
       </c>
@@ -11129,7 +11128,7 @@
         <v>811033202</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A218" s="6">
         <v>109243503</v>
       </c>
@@ -11170,7 +11169,7 @@
         <v>95183270</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A219" s="6">
         <v>109246003</v>
       </c>
@@ -11211,7 +11210,7 @@
         <v>153855776</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A220" s="6">
         <v>109248003</v>
       </c>
@@ -11252,7 +11251,7 @@
         <v>528777493</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A221" s="6">
         <v>105251453</v>
       </c>
@@ -11293,7 +11292,7 @@
         <v>254334134</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A222" s="6">
         <v>105252602</v>
       </c>
@@ -11334,7 +11333,7 @@
         <v>1477318058</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A223" s="6">
         <v>105253303</v>
       </c>
@@ -11375,7 +11374,7 @@
         <v>530802615</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A224" s="6">
         <v>105253553</v>
       </c>
@@ -11416,7 +11415,7 @@
         <v>422310946</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A225" s="6">
         <v>105253903</v>
       </c>
@@ -11457,7 +11456,7 @@
         <v>436521596</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A226" s="6">
         <v>105254053</v>
       </c>
@@ -11498,7 +11497,7 @@
         <v>241416622</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A227" s="6">
         <v>105254353</v>
       </c>
@@ -11539,7 +11538,7 @@
         <v>410893416</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A228" s="6">
         <v>105256553</v>
       </c>
@@ -11580,7 +11579,7 @@
         <v>130664717</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A229" s="6">
         <v>105257602</v>
       </c>
@@ -11621,7 +11620,7 @@
         <v>2001604253</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A230" s="6">
         <v>105258303</v>
       </c>
@@ -11662,7 +11661,7 @@
         <v>261751655</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A231" s="6">
         <v>105258503</v>
       </c>
@@ -11703,7 +11702,7 @@
         <v>189278776</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A232" s="6">
         <v>105259103</v>
       </c>
@@ -11744,7 +11743,7 @@
         <v>124354812</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A233" s="6">
         <v>105259703</v>
       </c>
@@ -11785,7 +11784,7 @@
         <v>262678811</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A234" s="6">
         <v>101260303</v>
       </c>
@@ -11826,7 +11825,7 @@
         <v>441425208</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A235" s="6">
         <v>101260803</v>
       </c>
@@ -11867,7 +11866,7 @@
         <v>210135654</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A236" s="6">
         <v>101261302</v>
       </c>
@@ -11908,7 +11907,7 @@
         <v>700092100</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A237" s="6">
         <v>101262903</v>
       </c>
@@ -11949,7 +11948,7 @@
         <v>187585673</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A238" s="6">
         <v>101264003</v>
       </c>
@@ -11990,7 +11989,7 @@
         <v>550836064</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A239" s="6">
         <v>101268003</v>
       </c>
@@ -12031,7 +12030,7 @@
         <v>516100144</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A240" s="6">
         <v>106272003</v>
       </c>
@@ -12072,7 +12071,7 @@
         <v>86094751</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A241" s="6">
         <v>112281302</v>
       </c>
@@ -12113,7 +12112,7 @@
         <v>1921660198</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A242" s="6">
         <v>112282004</v>
       </c>
@@ -12154,7 +12153,7 @@
         <v>105854325</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A243" s="6">
         <v>112283003</v>
       </c>
@@ -12195,7 +12194,7 @@
         <v>651412853</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A244" s="6">
         <v>112286003</v>
       </c>
@@ -12236,7 +12235,7 @@
         <v>493174886</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A245" s="6">
         <v>112289003</v>
       </c>
@@ -12277,7 +12276,7 @@
         <v>840672748</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A246" s="6">
         <v>111291304</v>
       </c>
@@ -12318,7 +12317,7 @@
         <v>156171900</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A247" s="6">
         <v>111292304</v>
       </c>
@@ -12359,7 +12358,7 @@
         <v>66324891</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A248" s="6">
         <v>111297504</v>
       </c>
@@ -12400,7 +12399,7 @@
         <v>129214084</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A249" s="6">
         <v>101301303</v>
       </c>
@@ -12441,7 +12440,7 @@
         <v>142761222</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A250" s="6">
         <v>101301403</v>
       </c>
@@ -12482,7 +12481,7 @@
         <v>342660887</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A251" s="6">
         <v>101303503</v>
       </c>
@@ -12523,7 +12522,7 @@
         <v>123035096</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A252" s="6">
         <v>101306503</v>
       </c>
@@ -12564,7 +12563,7 @@
         <v>95055864</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A253" s="6">
         <v>101308503</v>
       </c>
@@ -12605,7 +12604,7 @@
         <v>173206167</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A254" s="6">
         <v>111312503</v>
       </c>
@@ -12646,7 +12645,7 @@
         <v>367863491</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A255" s="6">
         <v>111312804</v>
       </c>
@@ -12687,7 +12686,7 @@
         <v>122033907</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A256" s="6">
         <v>111316003</v>
       </c>
@@ -12728,7 +12727,7 @@
         <v>178757838</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A257" s="6">
         <v>111317503</v>
       </c>
@@ -12769,7 +12768,7 @@
         <v>169789866</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A258" s="6">
         <v>128323303</v>
       </c>
@@ -12810,7 +12809,7 @@
         <v>130839590</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A259" s="6">
         <v>128323703</v>
       </c>
@@ -12851,7 +12850,7 @@
         <v>674450897</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A260" s="6">
         <v>128325203</v>
       </c>
@@ -12892,7 +12891,7 @@
         <v>216416247</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A261" s="6">
         <v>128326303</v>
       </c>
@@ -12933,7 +12932,7 @@
         <v>123238624</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A262" s="6">
         <v>128327303</v>
       </c>
@@ -12974,7 +12973,7 @@
         <v>125039422</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A263" s="6">
         <v>128321103</v>
       </c>
@@ -13015,7 +13014,7 @@
         <v>314922092</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A264" s="6">
         <v>128328003</v>
       </c>
@@ -13056,7 +13055,7 @@
         <v>158429796</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A265" s="6">
         <v>106330703</v>
       </c>
@@ -13097,7 +13096,7 @@
         <v>188665552</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A266" s="6">
         <v>106330803</v>
       </c>
@@ -13138,7 +13137,7 @@
         <v>268604196</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A267" s="6">
         <v>106338003</v>
       </c>
@@ -13179,7 +13178,7 @@
         <v>441952865</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A268" s="6">
         <v>111343603</v>
       </c>
@@ -13220,7 +13219,7 @@
         <v>584513094</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A269" s="6">
         <v>119350303</v>
       </c>
@@ -13261,7 +13260,7 @@
         <v>1276990787</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A270" s="6">
         <v>119351303</v>
       </c>
@@ -13302,7 +13301,7 @@
         <v>198352746</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A271" s="6">
         <v>119352203</v>
       </c>
@@ -13343,7 +13342,7 @@
         <v>406289338</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A272" s="6">
         <v>119354603</v>
       </c>
@@ -13384,7 +13383,7 @@
         <v>357007989</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A273" s="6">
         <v>119355503</v>
       </c>
@@ -13425,7 +13424,7 @@
         <v>385311974</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A274" s="6">
         <v>119356503</v>
       </c>
@@ -13466,7 +13465,7 @@
         <v>709557857</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A275" s="6">
         <v>119356603</v>
       </c>
@@ -13507,7 +13506,7 @@
         <v>240350640</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A276" s="6">
         <v>119357003</v>
       </c>
@@ -13548,7 +13547,7 @@
         <v>385592932</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A277" s="6">
         <v>119357402</v>
       </c>
@@ -13589,7 +13588,7 @@
         <v>1254850564</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A278" s="6">
         <v>119358403</v>
       </c>
@@ -13630,7 +13629,7 @@
         <v>509743269</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A279" s="6">
         <v>113361303</v>
       </c>
@@ -13671,7 +13670,7 @@
         <v>880744815</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A280" s="6">
         <v>113361503</v>
       </c>
@@ -13712,7 +13711,7 @@
         <v>184520656</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A281" s="6">
         <v>113361703</v>
       </c>
@@ -13753,7 +13752,7 @@
         <v>1207763689</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A282" s="6">
         <v>113362203</v>
       </c>
@@ -13794,7 +13793,7 @@
         <v>723463896</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A283" s="6">
         <v>113362303</v>
       </c>
@@ -13835,7 +13834,7 @@
         <v>1110141458</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A284" s="6">
         <v>113362403</v>
       </c>
@@ -13876,7 +13875,7 @@
         <v>1050642974</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A285" s="6">
         <v>113362603</v>
       </c>
@@ -13917,7 +13916,7 @@
         <v>1132872609</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A286" s="6">
         <v>113363103</v>
       </c>
@@ -13958,7 +13957,7 @@
         <v>1950972498</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A287" s="6">
         <v>113363603</v>
       </c>
@@ -13999,7 +13998,7 @@
         <v>1020546479</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A288" s="6">
         <v>113364002</v>
       </c>
@@ -14040,7 +14039,7 @@
         <v>2217361789</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A289" s="6">
         <v>113364403</v>
       </c>
@@ -14081,7 +14080,7 @@
         <v>989888042</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A290" s="6">
         <v>113364503</v>
       </c>
@@ -14122,7 +14121,7 @@
         <v>2262727793</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A291" s="6">
         <v>113365203</v>
       </c>
@@ -14163,7 +14162,7 @@
         <v>1336692450</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A292" s="6">
         <v>113365303</v>
       </c>
@@ -14204,7 +14203,7 @@
         <v>721119260</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A293" s="6">
         <v>113367003</v>
       </c>
@@ -14245,7 +14244,7 @@
         <v>854557214</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A294" s="6">
         <v>113369003</v>
       </c>
@@ -14286,7 +14285,7 @@
         <v>1329555852</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A295" s="6">
         <v>104372003</v>
       </c>
@@ -14327,7 +14326,7 @@
         <v>342196945</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A296" s="6">
         <v>104374003</v>
       </c>
@@ -14368,7 +14367,7 @@
         <v>212335868</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A297" s="6">
         <v>104375003</v>
       </c>
@@ -14409,7 +14408,7 @@
         <v>256006077</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A298" s="6">
         <v>104375203</v>
       </c>
@@ -14450,7 +14449,7 @@
         <v>355371465</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A299" s="6">
         <v>104375302</v>
       </c>
@@ -14491,7 +14490,7 @@
         <v>299589277</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A300" s="6">
         <v>104376203</v>
       </c>
@@ -14532,7 +14531,7 @@
         <v>225933330</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A301" s="6">
         <v>104377003</v>
       </c>
@@ -14573,7 +14572,7 @@
         <v>104577508</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A302" s="6">
         <v>104378003</v>
       </c>
@@ -14614,7 +14613,7 @@
         <v>277535101</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A303" s="6">
         <v>113380303</v>
       </c>
@@ -14655,7 +14654,7 @@
         <v>360760925</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A304" s="6">
         <v>113381303</v>
       </c>
@@ -14696,7 +14695,7 @@
         <v>1242008191</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A305" s="6">
         <v>113382303</v>
       </c>
@@ -14737,7 +14736,7 @@
         <v>689511807</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A306" s="6">
         <v>113384603</v>
       </c>
@@ -14778,7 +14777,7 @@
         <v>426918005</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A307" s="6">
         <v>113385003</v>
       </c>
@@ -14819,7 +14818,7 @@
         <v>546310043</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A308" s="6">
         <v>113385303</v>
       </c>
@@ -14860,7 +14859,7 @@
         <v>909473977</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A309" s="6">
         <v>121390302</v>
       </c>
@@ -14901,7 +14900,7 @@
         <v>2090041025</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A310" s="6">
         <v>121391303</v>
       </c>
@@ -14942,7 +14941,7 @@
         <v>258032329</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A311" s="6">
         <v>121392303</v>
       </c>
@@ -14983,7 +14982,7 @@
         <v>2437998606</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A312" s="6">
         <v>121394503</v>
       </c>
@@ -15024,7 +15023,7 @@
         <v>390668324</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A313" s="6">
         <v>121394603</v>
       </c>
@@ -15065,7 +15064,7 @@
         <v>691838584</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A314" s="6">
         <v>121395103</v>
       </c>
@@ -15106,7 +15105,7 @@
         <v>3295876549</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A315" s="6">
         <v>121395603</v>
       </c>
@@ -15147,7 +15146,7 @@
         <v>619698164</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A316" s="6">
         <v>121395703</v>
       </c>
@@ -15188,7 +15187,7 @@
         <v>1570553947</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A317" s="6">
         <v>121397803</v>
       </c>
@@ -15229,7 +15228,7 @@
         <v>851113979</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A318" s="6">
         <v>118401403</v>
       </c>
@@ -15270,7 +15269,7 @@
         <v>844669173</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A319" s="6">
         <v>118401603</v>
       </c>
@@ -15311,7 +15310,7 @@
         <v>939856516</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A320" s="6">
         <v>118402603</v>
       </c>
@@ -15352,7 +15351,7 @@
         <v>318567537</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A321" s="6">
         <v>118403003</v>
       </c>
@@ -15393,7 +15392,7 @@
         <v>312371749</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A322" s="6">
         <v>118403302</v>
       </c>
@@ -15434,7 +15433,7 @@
         <v>1692612830</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A323" s="6">
         <v>118403903</v>
       </c>
@@ -15475,7 +15474,7 @@
         <v>551360216</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A324" s="6">
         <v>118406003</v>
       </c>
@@ -15516,7 +15515,7 @@
         <v>197363092</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A325" s="6">
         <v>118406602</v>
       </c>
@@ -15557,7 +15556,7 @@
         <v>740808236</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A326" s="6">
         <v>118408852</v>
       </c>
@@ -15598,7 +15597,7 @@
         <v>1153372939</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A327" s="6">
         <v>118409203</v>
       </c>
@@ -15639,7 +15638,7 @@
         <v>511009551</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A328" s="6">
         <v>118409302</v>
       </c>
@@ -15680,7 +15679,7 @@
         <v>969173019</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A329" s="6">
         <v>117412003</v>
       </c>
@@ -15721,7 +15720,7 @@
         <v>304825949</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A330" s="6">
         <v>117414003</v>
       </c>
@@ -15762,7 +15761,7 @@
         <v>424689264</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A331" s="6">
         <v>117414203</v>
       </c>
@@ -15803,7 +15802,7 @@
         <v>378068012</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A332" s="6">
         <v>117415004</v>
       </c>
@@ -15844,7 +15843,7 @@
         <v>169884678</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A333" s="6">
         <v>117415103</v>
       </c>
@@ -15885,7 +15884,7 @@
         <v>430583272</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A334" s="6">
         <v>117415303</v>
       </c>
@@ -15926,7 +15925,7 @@
         <v>195507437</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A335" s="6">
         <v>117416103</v>
       </c>
@@ -15967,7 +15966,7 @@
         <v>233151376</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A336" s="6">
         <v>117417202</v>
       </c>
@@ -16008,7 +16007,7 @@
         <v>778488233</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A337" s="6">
         <v>109420803</v>
       </c>
@@ -16049,7 +16048,7 @@
         <v>384990666</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A338" s="6">
         <v>109422303</v>
       </c>
@@ -16090,7 +16089,7 @@
         <v>150578052</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A339" s="6">
         <v>109426003</v>
       </c>
@@ -16131,7 +16130,7 @@
         <v>63860325</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A340" s="6">
         <v>109426303</v>
       </c>
@@ -16172,7 +16171,7 @@
         <v>100609052</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A341" s="6">
         <v>109427503</v>
       </c>
@@ -16213,7 +16212,7 @@
         <v>107185146</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A342" s="6">
         <v>104431304</v>
       </c>
@@ -16254,7 +16253,7 @@
         <v>82384335</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A343" s="6">
         <v>104432503</v>
       </c>
@@ -16295,7 +16294,7 @@
         <v>62473746</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A344" s="6">
         <v>104432803</v>
       </c>
@@ -16336,7 +16335,7 @@
         <v>195127556</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A345" s="6">
         <v>104432903</v>
       </c>
@@ -16377,7 +16376,7 @@
         <v>413653791</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A346" s="6">
         <v>104433303</v>
       </c>
@@ -16418,7 +16417,7 @@
         <v>509462594</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A347" s="6">
         <v>104433604</v>
       </c>
@@ -16459,7 +16458,7 @@
         <v>98729721</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A348" s="6">
         <v>104433903</v>
       </c>
@@ -16500,7 +16499,7 @@
         <v>197115460</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A349" s="6">
         <v>104435003</v>
       </c>
@@ -16541,7 +16540,7 @@
         <v>224962765</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A350" s="6">
         <v>104435303</v>
       </c>
@@ -16582,7 +16581,7 @@
         <v>170474469</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A351" s="6">
         <v>104435603</v>
       </c>
@@ -16623,7 +16622,7 @@
         <v>195675864</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A352" s="6">
         <v>104435703</v>
       </c>
@@ -16664,7 +16663,7 @@
         <v>190319099</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A353" s="6">
         <v>104437503</v>
       </c>
@@ -16705,7 +16704,7 @@
         <v>170977258</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A354" s="6">
         <v>111444602</v>
       </c>
@@ -16746,7 +16745,7 @@
         <v>954113389</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A355" s="6">
         <v>120452003</v>
       </c>
@@ -16787,7 +16786,7 @@
         <v>892465623</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A356" s="6">
         <v>120455203</v>
       </c>
@@ -16828,7 +16827,7 @@
         <v>825588549</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A357" s="6">
         <v>120455403</v>
       </c>
@@ -16869,7 +16868,7 @@
         <v>1292426533</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A358" s="6">
         <v>120456003</v>
       </c>
@@ -16910,7 +16909,7 @@
         <v>914399204</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A359" s="6">
         <v>123460302</v>
       </c>
@@ -16951,7 +16950,7 @@
         <v>3202639466</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A360" s="6">
         <v>123460504</v>
       </c>
@@ -16992,7 +16991,7 @@
         <v>100635420</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A361" s="6">
         <v>123461302</v>
       </c>
@@ -17033,7 +17032,7 @@
         <v>1426505347</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A362" s="6">
         <v>123461602</v>
       </c>
@@ -17074,7 +17073,7 @@
         <v>3369327382</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A363" s="6">
         <v>123463603</v>
       </c>
@@ -17115,7 +17114,7 @@
         <v>1843569999</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A364" s="6">
         <v>123463803</v>
       </c>
@@ -17156,7 +17155,7 @@
         <v>248954900</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A365" s="6">
         <v>123464502</v>
       </c>
@@ -17197,7 +17196,7 @@
         <v>14236219957</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A366" s="6">
         <v>123464603</v>
       </c>
@@ -17238,7 +17237,7 @@
         <v>1028642270</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A367" s="6">
         <v>123465303</v>
       </c>
@@ -17279,7 +17278,7 @@
         <v>2340163185</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A368" s="6">
         <v>123465602</v>
       </c>
@@ -17320,7 +17319,7 @@
         <v>1752746181</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A369" s="6">
         <v>123465702</v>
       </c>
@@ -17361,7 +17360,7 @@
         <v>4615578416</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A370" s="6">
         <v>123466103</v>
       </c>
@@ -17402,7 +17401,7 @@
         <v>2064239958</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A371" s="6">
         <v>123466303</v>
       </c>
@@ -17443,7 +17442,7 @@
         <v>743421195</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A372" s="6">
         <v>123466403</v>
       </c>
@@ -17484,7 +17483,7 @@
         <v>482830597</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A373" s="6">
         <v>123467103</v>
       </c>
@@ -17525,7 +17524,7 @@
         <v>2276211991</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A374" s="6">
         <v>123467203</v>
       </c>
@@ -17566,7 +17565,7 @@
         <v>1343615101</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A375" s="6">
         <v>123467303</v>
       </c>
@@ -17607,7 +17606,7 @@
         <v>2824866485</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A376" s="6">
         <v>123468303</v>
       </c>
@@ -17648,7 +17647,7 @@
         <v>2222138012</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A377" s="6">
         <v>123468402</v>
       </c>
@@ -17689,7 +17688,7 @@
         <v>2214193068</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A378" s="6">
         <v>123468503</v>
       </c>
@@ -17730,7 +17729,7 @@
         <v>960989307</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A379" s="6">
         <v>123468603</v>
       </c>
@@ -17771,7 +17770,7 @@
         <v>896940772</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A380" s="6">
         <v>123469303</v>
       </c>
@@ -17812,7 +17811,7 @@
         <v>3739010770</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A381" s="6">
         <v>116471803</v>
       </c>
@@ -17853,7 +17852,7 @@
         <v>719595828</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A382" s="6">
         <v>120480803</v>
       </c>
@@ -17894,7 +17893,7 @@
         <v>696132050</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A383" s="6">
         <v>120481002</v>
       </c>
@@ -17935,7 +17934,7 @@
         <v>3679702925</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A384" s="6">
         <v>120483302</v>
       </c>
@@ -17976,7 +17975,7 @@
         <v>1978324160</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A385" s="6">
         <v>120484803</v>
       </c>
@@ -18017,7 +18016,7 @@
         <v>1337199040</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A386" s="6">
         <v>120484903</v>
       </c>
@@ -18058,7 +18057,7 @@
         <v>1474131111</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A387" s="6">
         <v>120485603</v>
       </c>
@@ -18099,7 +18098,7 @@
         <v>374521553</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A388" s="6">
         <v>120486003</v>
       </c>
@@ -18140,7 +18139,7 @@
         <v>988723946</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A389" s="6">
         <v>120488603</v>
       </c>
@@ -18181,7 +18180,7 @@
         <v>658777329</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A390" s="6">
         <v>116493503</v>
       </c>
@@ -18222,7 +18221,7 @@
         <v>227400606</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A391" s="6">
         <v>116495003</v>
       </c>
@@ -18263,7 +18262,7 @@
         <v>369831076</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A392" s="6">
         <v>116495103</v>
       </c>
@@ -18304,7 +18303,7 @@
         <v>198117719</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A393" s="6">
         <v>116496503</v>
       </c>
@@ -18345,7 +18344,7 @@
         <v>308244455</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A394" s="6">
         <v>116496603</v>
       </c>
@@ -18386,7 +18385,7 @@
         <v>518251375</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A395" s="6">
         <v>116498003</v>
       </c>
@@ -18427,7 +18426,7 @@
         <v>321475161</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A396" s="6">
         <v>115503004</v>
       </c>
@@ -18468,7 +18467,7 @@
         <v>149889954</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A397" s="6">
         <v>115504003</v>
       </c>
@@ -18509,7 +18508,7 @@
         <v>193568420</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A398" s="6">
         <v>115506003</v>
       </c>
@@ -18550,7 +18549,7 @@
         <v>392417213</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A399" s="6">
         <v>115508003</v>
       </c>
@@ -18591,7 +18590,7 @@
         <v>504096598</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A400" s="6">
         <v>126515001</v>
       </c>
@@ -18632,7 +18631,7 @@
         <v>37390485174</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A401" s="6">
         <v>120522003</v>
       </c>
@@ -18673,7 +18672,7 @@
         <v>607229127</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A402" s="6">
         <v>119648303</v>
       </c>
@@ -18714,7 +18713,7 @@
         <v>586018262</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A403" s="6">
         <v>109530304</v>
       </c>
@@ -18755,7 +18754,7 @@
         <v>22984592</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A404" s="6">
         <v>109531304</v>
       </c>
@@ -18796,7 +18795,7 @@
         <v>128611731</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A405" s="6">
         <v>109532804</v>
       </c>
@@ -18837,7 +18836,7 @@
         <v>48741635</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A406" s="6">
         <v>109535504</v>
       </c>
@@ -18878,7 +18877,7 @@
         <v>67261588</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A407" s="6">
         <v>109537504</v>
       </c>
@@ -18919,7 +18918,7 @@
         <v>49002445</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A408" s="6">
         <v>129540803</v>
       </c>
@@ -18960,7 +18959,7 @@
         <v>773828589</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A409" s="6">
         <v>129544503</v>
       </c>
@@ -19001,7 +19000,7 @@
         <v>127322983</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A410" s="6">
         <v>129544703</v>
       </c>
@@ -19042,7 +19041,7 @@
         <v>182315235</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A411" s="6">
         <v>129545003</v>
       </c>
@@ -19083,7 +19082,7 @@
         <v>326314335</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A412" s="6">
         <v>129546003</v>
       </c>
@@ -19124,7 +19123,7 @@
         <v>293103484</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A413" s="6">
         <v>129546103</v>
       </c>
@@ -19165,7 +19164,7 @@
         <v>485334657</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A414" s="6">
         <v>129546803</v>
       </c>
@@ -19206,7 +19205,7 @@
         <v>117716341</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A415" s="6">
         <v>129547303</v>
       </c>
@@ -19247,7 +19246,7 @@
         <v>226828404</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A416" s="6">
         <v>129547203</v>
       </c>
@@ -19288,7 +19287,7 @@
         <v>109010966</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A417" s="6">
         <v>129547603</v>
       </c>
@@ -19329,7 +19328,7 @@
         <v>384375383</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A418" s="6">
         <v>129547803</v>
       </c>
@@ -19370,7 +19369,7 @@
         <v>182576404</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A419" s="6">
         <v>129548803</v>
       </c>
@@ -19411,7 +19410,7 @@
         <v>151279729</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A420" s="6">
         <v>116555003</v>
       </c>
@@ -19452,7 +19451,7 @@
         <v>386497975</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A421" s="6">
         <v>116557103</v>
       </c>
@@ -19493,7 +19492,7 @@
         <v>556655143</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A422" s="6">
         <v>108561003</v>
       </c>
@@ -19534,7 +19533,7 @@
         <v>131834931</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A423" s="6">
         <v>108561803</v>
       </c>
@@ -19575,7 +19574,7 @@
         <v>187334510</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A424" s="6">
         <v>108565203</v>
       </c>
@@ -19616,7 +19615,7 @@
         <v>141319731</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A425" s="6">
         <v>108565503</v>
       </c>
@@ -19657,7 +19656,7 @@
         <v>177059424</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A426" s="6">
         <v>108566303</v>
       </c>
@@ -19698,7 +19697,7 @@
         <v>155103119</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A427" s="6">
         <v>108567004</v>
       </c>
@@ -19739,7 +19738,7 @@
         <v>52665505</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A428" s="6">
         <v>108567204</v>
       </c>
@@ -19780,7 +19779,7 @@
         <v>68457186</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A429" s="6">
         <v>108567404</v>
       </c>
@@ -19821,7 +19820,7 @@
         <v>92635618</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A430" s="6">
         <v>108567703</v>
       </c>
@@ -19862,7 +19861,7 @@
         <v>455085415</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A431" s="6">
         <v>108568404</v>
       </c>
@@ -19903,7 +19902,7 @@
         <v>46099205</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A432" s="6">
         <v>108569103</v>
       </c>
@@ -19944,7 +19943,7 @@
         <v>179547925</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A433" s="6">
         <v>117576303</v>
       </c>
@@ -19985,7 +19984,7 @@
         <v>141799211</v>
       </c>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A434" s="6">
         <v>119581003</v>
       </c>
@@ -20026,7 +20025,7 @@
         <v>134086000</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A435" s="6">
         <v>119582503</v>
       </c>
@@ -20067,7 +20066,7 @@
         <v>273187698</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A436" s="6">
         <v>119583003</v>
       </c>
@@ -20108,7 +20107,7 @@
         <v>125540871</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A437" s="6">
         <v>119584503</v>
       </c>
@@ -20149,7 +20148,7 @@
         <v>294064714</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A438" s="6">
         <v>119584603</v>
       </c>
@@ -20190,7 +20189,7 @@
         <v>333183340</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A439" s="6">
         <v>119586503</v>
       </c>
@@ -20231,7 +20230,7 @@
         <v>93501531</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A440" s="6">
         <v>117596003</v>
       </c>
@@ -20272,7 +20271,7 @@
         <v>201855597</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A441" s="6">
         <v>117597003</v>
       </c>
@@ -20313,7 +20312,7 @@
         <v>314619761</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A442" s="6">
         <v>117598503</v>
       </c>
@@ -20354,7 +20353,7 @@
         <v>266513981</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A443" s="6">
         <v>116604003</v>
       </c>
@@ -20395,7 +20394,7 @@
         <v>644952857</v>
       </c>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A444" s="6">
         <v>116605003</v>
       </c>
@@ -20436,7 +20435,7 @@
         <v>409868831</v>
       </c>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A445" s="6">
         <v>106611303</v>
       </c>
@@ -20477,7 +20476,7 @@
         <v>208157629</v>
       </c>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A446" s="6">
         <v>106612203</v>
       </c>
@@ -20518,7 +20517,7 @@
         <v>302168262</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A447" s="6">
         <v>106616203</v>
       </c>
@@ -20559,7 +20558,7 @@
         <v>267201116</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A448" s="6">
         <v>106617203</v>
       </c>
@@ -20600,7 +20599,7 @@
         <v>269730764</v>
       </c>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A449" s="6">
         <v>106618603</v>
       </c>
@@ -20641,7 +20640,7 @@
         <v>122447624</v>
       </c>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A450" s="6">
         <v>105628302</v>
       </c>
@@ -20682,7 +20681,7 @@
         <v>714626119</v>
       </c>
     </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A451" s="6">
         <v>101630504</v>
       </c>
@@ -20723,7 +20722,7 @@
         <v>134040625</v>
       </c>
     </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A452" s="6">
         <v>101630903</v>
       </c>
@@ -20764,7 +20763,7 @@
         <v>217758430</v>
       </c>
     </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A453" s="6">
         <v>101631003</v>
       </c>
@@ -20805,7 +20804,7 @@
         <v>213615616</v>
       </c>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A454" s="6">
         <v>101631203</v>
       </c>
@@ -20846,7 +20845,7 @@
         <v>260235534</v>
       </c>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A455" s="6">
         <v>101631503</v>
       </c>
@@ -20887,7 +20886,7 @@
         <v>166236705</v>
       </c>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A456" s="6">
         <v>101631703</v>
       </c>
@@ -20928,7 +20927,7 @@
         <v>1755420820</v>
       </c>
     </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A457" s="6">
         <v>101631803</v>
       </c>
@@ -20969,7 +20968,7 @@
         <v>262449331</v>
       </c>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A458" s="6">
         <v>101631903</v>
       </c>
@@ -21010,7 +21009,7 @@
         <v>328055553</v>
       </c>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A459" s="6">
         <v>101632403</v>
       </c>
@@ -21051,7 +21050,7 @@
         <v>258358713</v>
       </c>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A460" s="6">
         <v>101633903</v>
       </c>
@@ -21092,7 +21091,7 @@
         <v>405193488</v>
       </c>
     </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A461" s="6">
         <v>101636503</v>
       </c>
@@ -21133,7 +21132,7 @@
         <v>1835179605</v>
       </c>
     </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A462" s="6">
         <v>101637002</v>
       </c>
@@ -21174,7 +21173,7 @@
         <v>669374639</v>
       </c>
     </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A463" s="6">
         <v>101638003</v>
       </c>
@@ -21215,7 +21214,7 @@
         <v>867491172</v>
       </c>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A464" s="6">
         <v>101638803</v>
       </c>
@@ -21256,7 +21255,7 @@
         <v>252987741</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A465" s="6">
         <v>119648703</v>
       </c>
@@ -21297,7 +21296,7 @@
         <v>514483218</v>
       </c>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A466" s="6">
         <v>119648903</v>
       </c>
@@ -21338,7 +21337,7 @@
         <v>358851844</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A467" s="6">
         <v>107650603</v>
       </c>
@@ -21379,7 +21378,7 @@
         <v>525024005</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A468" s="6">
         <v>107650703</v>
       </c>
@@ -21420,7 +21419,7 @@
         <v>418201090</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A469" s="6">
         <v>107651603</v>
       </c>
@@ -21461,7 +21460,7 @@
         <v>366483309</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A470" s="6">
         <v>107652603</v>
       </c>
@@ -21502,7 +21501,7 @@
         <v>1300649082</v>
       </c>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A471" s="6">
         <v>107653102</v>
       </c>
@@ -21543,7 +21542,7 @@
         <v>1145527448</v>
       </c>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A472" s="6">
         <v>107653203</v>
       </c>
@@ -21584,7 +21583,7 @@
         <v>683565011</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A473" s="6">
         <v>107653802</v>
       </c>
@@ -21625,7 +21624,7 @@
         <v>1468958431</v>
       </c>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A474" s="6">
         <v>107654103</v>
       </c>
@@ -21666,7 +21665,7 @@
         <v>166465052</v>
       </c>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A475" s="6">
         <v>107654403</v>
       </c>
@@ -21707,7 +21706,7 @@
         <v>751240843</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A476" s="6">
         <v>107654903</v>
       </c>
@@ -21748,7 +21747,7 @@
         <v>565245169</v>
       </c>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A477" s="6">
         <v>107655803</v>
       </c>
@@ -21789,7 +21788,7 @@
         <v>123293482</v>
       </c>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A478" s="6">
         <v>107655903</v>
       </c>
@@ -21830,7 +21829,7 @@
         <v>461050756</v>
       </c>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A479" s="6">
         <v>107656303</v>
       </c>
@@ -21871,7 +21870,7 @@
         <v>297695334</v>
       </c>
     </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A480" s="6">
         <v>107656502</v>
       </c>
@@ -21912,7 +21911,7 @@
         <v>1387784121</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A481" s="6">
         <v>107657103</v>
       </c>
@@ -21953,7 +21952,7 @@
         <v>1023419064</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A482" s="6">
         <v>107657503</v>
       </c>
@@ -21994,7 +21993,7 @@
         <v>334110800</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A483" s="6">
         <v>107658903</v>
       </c>
@@ -22035,7 +22034,7 @@
         <v>392517256</v>
       </c>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A484" s="6">
         <v>119665003</v>
       </c>
@@ -22076,7 +22075,7 @@
         <v>246507009</v>
       </c>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A485" s="6">
         <v>118667503</v>
       </c>
@@ -22117,7 +22116,7 @@
         <v>519710150</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A486" s="6">
         <v>112671303</v>
       </c>
@@ -22158,7 +22157,7 @@
         <v>1495897269</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A487" s="6">
         <v>112671603</v>
       </c>
@@ -22199,7 +22198,7 @@
         <v>1584912680</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A488" s="6">
         <v>112671803</v>
       </c>
@@ -22240,7 +22239,7 @@
         <v>691997990</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A489" s="6">
         <v>112672203</v>
       </c>
@@ -22281,7 +22280,7 @@
         <v>590892208</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A490" s="6">
         <v>112672803</v>
       </c>
@@ -22322,7 +22321,7 @@
         <v>401840399</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A491" s="6">
         <v>112674403</v>
       </c>
@@ -22363,7 +22362,7 @@
         <v>839396896</v>
       </c>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A492" s="6">
         <v>115674603</v>
       </c>
@@ -22404,7 +22403,7 @@
         <v>940891951</v>
       </c>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A493" s="6">
         <v>112675503</v>
       </c>
@@ -22445,7 +22444,7 @@
         <v>1109894214</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A494" s="6">
         <v>112676203</v>
       </c>
@@ -22486,7 +22485,7 @@
         <v>626905445</v>
       </c>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A495" s="6">
         <v>112676403</v>
       </c>
@@ -22527,7 +22526,7 @@
         <v>987278976</v>
       </c>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A496" s="6">
         <v>112676503</v>
       </c>
@@ -22568,7 +22567,7 @@
         <v>754473850</v>
       </c>
     </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A497" s="6">
         <v>112676703</v>
       </c>
@@ -22609,7 +22608,7 @@
         <v>1027877134</v>
       </c>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A498" s="6">
         <v>115219002</v>
       </c>
@@ -22650,7 +22649,7 @@
         <v>2317297093</v>
       </c>
     </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A499" s="6">
         <v>112678503</v>
       </c>
@@ -22691,7 +22690,7 @@
         <v>661111163</v>
       </c>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A500" s="6">
         <v>112679002</v>
       </c>
@@ -22732,7 +22731,7 @@
         <v>606072798</v>
       </c>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A501" s="6">
         <v>112679403</v>
       </c>
@@ -22773,7 +22772,7 @@
         <v>1056995970</v>
       </c>
     </row>
-    <row r="503" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A503" s="11"/>
       <c r="B503" s="12"/>
       <c r="C503" s="12"/>
@@ -22837,6 +22836,31 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <SharedWithUsers xmlns="a7af8e22-4aad-4637-bdfe-8881feb25ebc">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010063A4E9D8B9AE294BB8664582FC3229C4" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2a2d9ea174ca71e18204fe09cb4b5ba8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="a7af8e22-4aad-4637-bdfe-8881feb25ebc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1e1d1e180fd2d7c84c724596e328884d" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -22993,39 +23017,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <SharedWithUsers xmlns="a7af8e22-4aad-4637-bdfe-8881feb25ebc">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79B7050F-BE9E-4AB5-B77D-2A2C87ABCCF3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0647D10C-1EF3-43BC-855D-4C2A2C2E4B47}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="a7af8e22-4aad-4637-bdfe-8881feb25ebc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FC00A61-EAD1-48A5-A475-6F20E65D9565}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FC00A61-EAD1-48A5-A475-6F20E65D9565}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0647D10C-1EF3-43BC-855D-4C2A2C2E4B47}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79B7050F-BE9E-4AB5-B77D-2A2C87ABCCF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="a7af8e22-4aad-4637-bdfe-8881feb25ebc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>